--- a/ds_algo109/ExcelData/dsalgo-login .xlsx
+++ b/ds_algo109/ExcelData/dsalgo-login .xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6C884323-F731-472B-A23E-C5787C456FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yours\git\repository\ds_algo109\ExcelData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426B1E8D-71B4-48AE-B18E-A72EF6224203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="2175" windowWidth="15360" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -330,7 +334,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
